--- a/Step2/Report2Tables.xlsx
+++ b/Step2/Report2Tables.xlsx
@@ -1,27 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSE3302SensorsActuators\Step2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15789217-DE0E-4FD9-9883-FCD36AC5864D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E382563C-65B4-4898-AD42-A2DA5D38584F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GONOGO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>Repeatability</t>
+  </si>
+  <si>
+    <t>Linearity</t>
+  </si>
+  <si>
+    <t>(Duh)</t>
+  </si>
+  <si>
+    <t>Local Position</t>
+  </si>
+  <si>
+    <t>Ultrasonic</t>
+  </si>
+  <si>
+    <t>RADAR</t>
+  </si>
+  <si>
+    <t>SONAR</t>
+  </si>
+  <si>
+    <t>LIDAR</t>
+  </si>
+  <si>
+    <t>GNSS</t>
+  </si>
+  <si>
+    <t>Global Position</t>
+  </si>
+  <si>
+    <t>" " = NOGO</t>
+  </si>
+  <si>
+    <t>"1" = GO</t>
+  </si>
+  <si>
+    <t>Tesseract Detection</t>
+  </si>
+  <si>
+    <t>Hall Effect</t>
+  </si>
+  <si>
+    <t>Magnetometer</t>
+  </si>
+  <si>
+    <t>Reed Switch</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>Pyramid Detection</t>
+  </si>
+  <si>
+    <t>IR Receiver</t>
+  </si>
+  <si>
+    <t>Implementation Ease</t>
+  </si>
+  <si>
+    <t>Elegance</t>
+  </si>
+  <si>
+    <t>Non-Contact</t>
+  </si>
+  <si>
+    <t>Capacitive</t>
+  </si>
+  <si>
+    <t>Long Life</t>
+  </si>
+  <si>
+    <t>Encoders (on wheels)</t>
+  </si>
+  <si>
+    <t>LVDT (probes)</t>
+  </si>
+  <si>
+    <t>Potentiometer (probes)</t>
+  </si>
+  <si>
+    <t>Limit Switch (bump into walls)</t>
+  </si>
+  <si>
+    <t>Sample Rate</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,10 +169,63 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +234,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,7 +313,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +325,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +372,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +424,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +592,859 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2011E832-45C1-4F8A-8DD9-12CD65F15979}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="14" width="3.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="2:16" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Step2/Report2Tables.xlsx
+++ b/Step2/Report2Tables.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSE3302SensorsActuators\Step2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Year\3302 - Sensors\Github\MSE3302SensorsActuators-master\Step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15789217-DE0E-4FD9-9883-FCD36AC5864D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7B1CE2-99BB-46B9-9528-E2156323E4A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E382563C-65B4-4898-AD42-A2DA5D38584F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E382563C-65B4-4898-AD42-A2DA5D38584F}"/>
   </bookViews>
   <sheets>
-    <sheet name="GONOGO" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="2" r:id="rId1"/>
+    <sheet name="GONOGO" sheetId="1" r:id="rId2"/>
+    <sheet name="Sensor Datasheets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Range</t>
   </si>
@@ -129,13 +131,66 @@
   </si>
   <si>
     <t>Sample Rate</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Reasoning for Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Position </t>
+  </si>
+  <si>
+    <t>Linear Distance</t>
+  </si>
+  <si>
+    <t>Magnetic Field Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy: </t>
+  </si>
+  <si>
+    <t>Stop robot from colliding with obstacles or workers</t>
+  </si>
+  <si>
+    <t>Place the robot close enough to pick up the standard pallet-sized tesseract</t>
+  </si>
+  <si>
+    <t>Presence and Direction of
+Infrared Light</t>
+  </si>
+  <si>
+    <t>Range: 0.1m-3.0m
+Response Time: 0.1s-0.5s</t>
+  </si>
+  <si>
+    <t>Sensor Type</t>
+  </si>
+  <si>
+    <t>Key Requirements</t>
+  </si>
+  <si>
+    <t>Datasheet link</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Audiowell%20PDFs/UM0090-000.pdf</t>
+  </si>
+  <si>
+    <t>range, response time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +211,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,10 +294,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -279,8 +343,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,21 +659,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558D83F7-FDA0-4F95-A4BB-CDF5C3E839AB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="62.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2011E832-45C1-4F8A-8DD9-12CD65F15979}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="14" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4" max="14" width="3.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -624,7 +767,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -644,7 +787,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:16" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
@@ -683,7 +826,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
@@ -702,7 +845,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
@@ -733,7 +876,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
         <v>8</v>
@@ -771,7 +914,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
         <v>30</v>
@@ -801,7 +944,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
         <v>31</v>
@@ -823,7 +966,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="10" t="s">
         <v>26</v>
@@ -847,7 +990,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="10" t="s">
         <v>28</v>
@@ -879,7 +1022,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="13"/>
       <c r="D11" s="6"/>
@@ -895,7 +1038,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="11" t="s">
         <v>13</v>
@@ -913,7 +1056,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="10" t="s">
         <v>12</v>
@@ -945,7 +1088,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="10" t="s">
         <v>9</v>
@@ -981,7 +1124,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="10" t="s">
         <v>10</v>
@@ -1009,7 +1152,7 @@
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="10" t="s">
         <v>11</v>
@@ -1047,7 +1190,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="10" t="s">
         <v>20</v>
@@ -1085,7 +1228,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="13"/>
@@ -1102,7 +1245,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
         <v>16</v>
@@ -1120,7 +1263,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
@@ -1152,7 +1295,7 @@
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="10" t="s">
         <v>18</v>
@@ -1190,7 +1333,7 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
         <v>19</v>
@@ -1212,7 +1355,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="10" t="s">
         <v>20</v>
@@ -1238,7 +1381,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="13"/>
       <c r="D24" s="6"/>
@@ -1254,7 +1397,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="11" t="s">
         <v>21</v>
@@ -1272,7 +1415,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="10" t="s">
         <v>22</v>
@@ -1306,7 +1449,7 @@
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="10" t="s">
         <v>20</v>
@@ -1332,7 +1475,7 @@
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
@@ -1348,7 +1491,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
@@ -1364,7 +1507,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
@@ -1380,7 +1523,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="3"/>
@@ -1396,7 +1539,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
@@ -1412,7 +1555,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
@@ -1428,7 +1571,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1447,4 +1590,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF52FD3-76EF-4818-98B2-D8A46A656DD3}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{777B7AD0-C053-47CB-B64B-A70F4B125BFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Step2/Report2Tables.xlsx
+++ b/Step2/Report2Tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Year\3302 - Sensors\Github\MSE3302SensorsActuators-master\Step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7B1CE2-99BB-46B9-9528-E2156323E4A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E9148-C3AD-4299-88CC-0E75CA6EE315}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E382563C-65B4-4898-AD42-A2DA5D38584F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E382563C-65B4-4898-AD42-A2DA5D38584F}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
-    <sheet name="GONOGO" sheetId="1" r:id="rId2"/>
-    <sheet name="Sensor Datasheets" sheetId="3" r:id="rId3"/>
+    <sheet name="Guesstimations" sheetId="4" r:id="rId2"/>
+    <sheet name="GONOGO" sheetId="1" r:id="rId3"/>
+    <sheet name="Sensor Datasheets" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Range</t>
   </si>
@@ -167,23 +168,86 @@
 Infrared Light</t>
   </si>
   <si>
-    <t>Range: 0.1m-3.0m
+    <t>Sensor Type</t>
+  </si>
+  <si>
+    <t>Key Requirements</t>
+  </si>
+  <si>
+    <t>Datasheet link</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Audiowell%20PDFs/UM0090-000.pdf</t>
+  </si>
+  <si>
+    <t>range, response time</t>
+  </si>
+  <si>
+    <t>Range: 0.5m-3.0m
 Response Time: 0.1s-0.5s</t>
   </si>
   <si>
-    <t>Sensor Type</t>
-  </si>
-  <si>
-    <t>Key Requirements</t>
-  </si>
-  <si>
-    <t>Datasheet link</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Audiowell%20PDFs/UM0090-000.pdf</t>
-  </si>
-  <si>
-    <t>range, response time</t>
+    <t xml:space="preserve">Rise Time &lt; 0.01s
+Field Of View &gt; 90 degrees </t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>2 m/s</t>
+  </si>
+  <si>
+    <t>4 m/s^2</t>
+  </si>
+  <si>
+    <t>Robot moves at reasonably slow speed since workers are nearby</t>
+  </si>
+  <si>
+    <t>Assuming robot should stop within 0.5 seconds</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>50-75 hp</t>
+  </si>
+  <si>
+    <t>Torque</t>
+  </si>
+  <si>
+    <t>maximum 6 tonnes</t>
+  </si>
+  <si>
+    <t>Approximate mass of forklifts</t>
+  </si>
+  <si>
+    <t>1 250 KN.m</t>
+  </si>
+  <si>
+    <t>Assuming pyramid mass of 2500kg and a moment arm of 0.5m</t>
+  </si>
+  <si>
+    <t>Light Conditions
+Surroundings (line of sight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large enough field of view to properly orient robot near pyramid. 
+Fast enough rise time to correct robot orientation. </t>
   </si>
 </sst>
 </file>
@@ -662,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558D83F7-FDA0-4F95-A4BB-CDF5C3E839AB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +760,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -723,10 +787,22 @@
       <c r="B4" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -735,6 +811,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F84A309-E092-4D80-95DF-0C4401287B72}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2011E832-45C1-4F8A-8DD9-12CD65F15979}">
   <dimension ref="A1:P34"/>
   <sheetViews>
@@ -1592,11 +1751,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF52FD3-76EF-4818-98B2-D8A46A656DD3}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1609,13 +1768,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -1631,10 +1790,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Step2/Report2Tables.xlsx
+++ b/Step2/Report2Tables.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd Year\3302 - Sensors\Github\MSE3302SensorsActuators-master\Step2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E9148-C3AD-4299-88CC-0E75CA6EE315}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A58C77-CAF3-42A5-A590-720717DB0B9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E382563C-65B4-4898-AD42-A2DA5D38584F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E382563C-65B4-4898-AD42-A2DA5D38584F}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
-    <sheet name="Guesstimations" sheetId="4" r:id="rId2"/>
-    <sheet name="GONOGO" sheetId="1" r:id="rId3"/>
-    <sheet name="Sensor Datasheets" sheetId="3" r:id="rId4"/>
+    <sheet name="Requirements from Google Doc" sheetId="5" r:id="rId2"/>
+    <sheet name="Guesstimations" sheetId="4" r:id="rId3"/>
+    <sheet name="GONOGO" sheetId="1" r:id="rId4"/>
+    <sheet name="Sensor Datasheets" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>Range</t>
   </si>
@@ -183,10 +184,6 @@
     <t>range, response time</t>
   </si>
   <si>
-    <t>Range: 0.5m-3.0m
-Response Time: 0.1s-0.5s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rise Time &lt; 0.01s
 Field Of View &gt; 90 degrees </t>
   </si>
@@ -248,13 +245,98 @@
   <si>
     <t xml:space="preserve">Large enough field of view to properly orient robot near pyramid. 
 Fast enough rise time to correct robot orientation. </t>
+  </si>
+  <si>
+    <t>Range: 0.5m-3.0m
+Response Time: 0.1s</t>
+  </si>
+  <si>
+    <t>Error: Less than 5%</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Range: 0.5m-3.0m</t>
+  </si>
+  <si>
+    <t>Prevent the robot from colliding with surrounding</t>
+  </si>
+  <si>
+    <t>Response Time: 0.1s</t>
+  </si>
+  <si>
+    <t>Sample Rate: &gt;10 Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure the robot can respond quickly enough to avoid collisions </t>
+  </si>
+  <si>
+    <t>Ensure the system receives sensor data at an acceptable rate</t>
+  </si>
+  <si>
+    <t>Low Reliability Error</t>
+  </si>
+  <si>
+    <t>Resolution: &lt; 1 mG</t>
+  </si>
+  <si>
+    <t>Consistently and accurately locate the position of the tesseract</t>
+  </si>
+  <si>
+    <t>Accurately detect the location of the magnetic field from tesseract</t>
+  </si>
+  <si>
+    <t>Detect small changes in magnetic field to move toward tesseract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field </t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Magnetic</t>
+  </si>
+  <si>
+    <t>Linearity Error: &lt; 2%</t>
+  </si>
+  <si>
+    <t>Presence and</t>
+  </si>
+  <si>
+    <t>Direction of</t>
+  </si>
+  <si>
+    <t>IR Light</t>
+  </si>
+  <si>
+    <t>Rise Time: &lt; 0.05s</t>
+  </si>
+  <si>
+    <t>Sample Rate: &gt; 10 Hz</t>
+  </si>
+  <si>
+    <t>Increase chances of exposure to pyramid’s IR light</t>
+  </si>
+  <si>
+    <t>Provide system at a sufficiently fast rate</t>
+  </si>
+  <si>
+    <t>Field of View: &gt; 90</t>
+  </si>
+  <si>
+    <t>Adjust robot’s direction of travel toward pyramid IR light quickly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +368,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,6 +510,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558D83F7-FDA0-4F95-A4BB-CDF5C3E839AB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +894,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -774,7 +908,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
@@ -788,10 +922,10 @@
         <v>43</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -799,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -811,11 +945,162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A16CB9B-8267-43FF-BFAD-35DE7FD3B756}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="57.109375" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F84A309-E092-4D80-95DF-0C4401287B72}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,65 +1112,65 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +1178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2011E832-45C1-4F8A-8DD9-12CD65F15979}">
   <dimension ref="A1:P34"/>
   <sheetViews>
@@ -1751,12 +2036,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF52FD3-76EF-4818-98B2-D8A46A656DD3}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
